--- a/testData/WebForm/TC003_WF_RRUserN_NoCondition_Test.xlsx
+++ b/testData/WebForm/TC003_WF_RRUserN_NoCondition_Test.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="79">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -213,46 +213,10 @@
     <t>WF_RRUserN_NoCondition</t>
   </si>
   <si>
-    <t>9840063290</t>
-  </si>
-  <si>
     <t>WebFormId</t>
   </si>
   <si>
     <t>Done</t>
-  </si>
-  <si>
-    <t>2024-06-29 11:21:45</t>
-  </si>
-  <si>
-    <t>2024-06-29 11:21:54</t>
-  </si>
-  <si>
-    <t>9840027594</t>
-  </si>
-  <si>
-    <t>2024-06-29 11:22:30</t>
-  </si>
-  <si>
-    <t>2024-06-29 11:22:38</t>
-  </si>
-  <si>
-    <t>2024-06-29 11:22:46</t>
-  </si>
-  <si>
-    <t>2024-06-29 11:22:55</t>
-  </si>
-  <si>
-    <t>2024-06-29 11:23:03</t>
-  </si>
-  <si>
-    <t>2024-06-29 11:23:11</t>
-  </si>
-  <si>
-    <t>9840010768</t>
-  </si>
-  <si>
-    <t>2024-06-29 11:23:42</t>
   </si>
   <si>
     <t>9840016332</t>
@@ -298,7 +262,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -633,142 +596,142 @@
   <dimension ref="A1:AG10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="M2" sqref="M2:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="26.36328125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7265625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="24.54296875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="25.7265625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.08984375"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="17" max="17" customWidth="true" width="10.54296875"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="20" max="20" customWidth="true" width="10.54296875"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="23" max="23" customWidth="true" width="10.54296875"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="17.81640625"/>
-    <col min="27" max="27" customWidth="true" width="17.81640625"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="29.6328125"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="15.90625"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="14.26953125"/>
-    <col min="31" max="31" customWidth="true" width="14.26953125"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="1" max="1" width="52.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.54296875" customWidth="1"/>
+    <col min="18" max="18" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.54296875" customWidth="1"/>
+    <col min="21" max="21" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.54296875" customWidth="1"/>
+    <col min="24" max="24" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.81640625" customWidth="1"/>
+    <col min="28" max="28" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.26953125" customWidth="1"/>
+    <col min="32" max="32" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s" s="0">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s" s="0">
+      <c r="M1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" t="s" s="0">
+      <c r="N1" t="s">
         <v>25</v>
       </c>
-      <c r="O1" t="s" s="0">
+      <c r="O1" t="s">
         <v>29</v>
       </c>
-      <c r="P1" t="s" s="0">
+      <c r="P1" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" t="s" s="0">
+      <c r="Q1" t="s">
         <v>26</v>
       </c>
-      <c r="R1" t="s" s="0">
+      <c r="R1" t="s">
         <v>29</v>
       </c>
-      <c r="S1" t="s" s="0">
+      <c r="S1" t="s">
         <v>30</v>
       </c>
-      <c r="T1" t="s" s="0">
+      <c r="T1" t="s">
         <v>27</v>
       </c>
-      <c r="U1" t="s" s="0">
+      <c r="U1" t="s">
         <v>29</v>
       </c>
-      <c r="V1" t="s" s="0">
+      <c r="V1" t="s">
         <v>30</v>
       </c>
-      <c r="W1" t="s" s="0">
+      <c r="W1" t="s">
         <v>28</v>
       </c>
-      <c r="X1" t="s" s="0">
+      <c r="X1" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" t="s" s="0">
+      <c r="Y1" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" t="s" s="0">
+      <c r="Z1" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" t="s" s="0">
+      <c r="AA1" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" t="s" s="0">
+      <c r="AB1" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" t="s" s="0">
+      <c r="AC1" t="s">
         <v>55</v>
       </c>
-      <c r="AD1" t="s" s="0">
+      <c r="AD1" t="s">
         <v>56</v>
       </c>
-      <c r="AE1" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="AF1" t="s" s="0">
+      <c r="AE1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF1" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" t="s" s="0">
+      <c r="AG1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -782,14 +745,14 @@
       <c r="C2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s" s="0">
-        <v>78</v>
+      <c r="F2" t="s">
+        <v>66</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -797,80 +760,80 @@
       <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s" s="0">
+      <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s" s="0">
+      <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" t="s" s="0">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="M2" t="s" s="0">
+      <c r="M2" t="s">
         <v>19</v>
       </c>
-      <c r="N2" t="s" s="0">
+      <c r="N2" t="s">
         <v>46</v>
       </c>
-      <c r="O2" t="s" s="0">
+      <c r="O2" t="s">
         <v>42</v>
       </c>
-      <c r="P2" t="s" s="0">
+      <c r="P2" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" t="s" s="0">
+      <c r="Q2" t="s">
         <v>47</v>
       </c>
-      <c r="R2" t="s" s="0">
+      <c r="R2" t="s">
         <v>42</v>
       </c>
-      <c r="S2" t="s" s="0">
+      <c r="S2" t="s">
         <v>42</v>
       </c>
-      <c r="T2" t="s" s="0">
+      <c r="T2" t="s">
         <v>48</v>
       </c>
-      <c r="U2" t="s" s="0">
+      <c r="U2" t="s">
         <v>42</v>
       </c>
-      <c r="V2" t="s" s="0">
+      <c r="V2" t="s">
         <v>42</v>
       </c>
-      <c r="W2" t="s" s="0">
+      <c r="W2" t="s">
         <v>49</v>
       </c>
-      <c r="X2" t="s" s="0">
+      <c r="X2" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" t="s" s="0">
+      <c r="Y2" t="s">
         <v>42</v>
       </c>
-      <c r="Z2" t="s" s="0">
+      <c r="Z2" t="s">
         <v>45</v>
       </c>
-      <c r="AA2" t="s" s="0">
+      <c r="AA2" t="s">
         <v>33</v>
       </c>
-      <c r="AB2" t="s" s="0">
+      <c r="AB2" t="s">
         <v>63</v>
       </c>
-      <c r="AC2" t="s" s="0">
+      <c r="AC2" t="s">
         <v>57</v>
       </c>
-      <c r="AD2" t="s" s="0">
+      <c r="AD2" t="s">
         <v>58</v>
       </c>
-      <c r="AE2" s="0">
+      <c r="AE2">
         <v>132</v>
       </c>
-      <c r="AF2" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="AG2" t="s" s="0">
-        <v>79</v>
+      <c r="AF2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.35">
@@ -883,14 +846,14 @@
       <c r="C3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s" s="0">
-        <v>80</v>
+      <c r="F3" t="s">
+        <v>68</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
@@ -898,32 +861,32 @@
       <c r="H3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I3" t="s" s="0">
+      <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" t="s" s="0">
+      <c r="J3" t="s">
         <v>11</v>
       </c>
-      <c r="K3" t="s" s="0">
+      <c r="K3" t="s">
         <v>14</v>
       </c>
-      <c r="L3" t="s" s="0">
+      <c r="L3" t="s">
         <v>51</v>
       </c>
-      <c r="M3" t="s" s="0">
+      <c r="M3" t="s">
         <v>19</v>
       </c>
-      <c r="AC3" t="s" s="0">
+      <c r="AC3" t="s">
         <v>57</v>
       </c>
-      <c r="AD3" t="s" s="0">
+      <c r="AD3" t="s">
         <v>59</v>
       </c>
-      <c r="AF3" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="AG3" t="s" s="0">
-        <v>81</v>
+      <c r="AF3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.35">
@@ -936,14 +899,14 @@
       <c r="C4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s" s="0">
-        <v>82</v>
+      <c r="F4" t="s">
+        <v>70</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
@@ -951,32 +914,32 @@
       <c r="H4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I4" t="s" s="0">
+      <c r="I4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" t="s" s="0">
+      <c r="J4" t="s">
         <v>11</v>
       </c>
-      <c r="K4" t="s" s="0">
+      <c r="K4" t="s">
         <v>14</v>
       </c>
-      <c r="L4" t="s" s="0">
+      <c r="L4" t="s">
         <v>52</v>
       </c>
-      <c r="M4" t="s" s="0">
+      <c r="M4" t="s">
         <v>19</v>
       </c>
-      <c r="AC4" t="s" s="0">
+      <c r="AC4" t="s">
         <v>57</v>
       </c>
-      <c r="AD4" t="s" s="0">
+      <c r="AD4" t="s">
         <v>60</v>
       </c>
-      <c r="AF4" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="AG4" t="s" s="0">
-        <v>83</v>
+      <c r="AF4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.35">
@@ -989,13 +952,13 @@
       <c r="C5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="0">
+      <c r="F5">
         <v>1243213423</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -1004,32 +967,32 @@
       <c r="H5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I5" t="s" s="0">
+      <c r="I5" t="s">
         <v>10</v>
       </c>
-      <c r="J5" t="s" s="0">
+      <c r="J5" t="s">
         <v>11</v>
       </c>
-      <c r="K5" t="s" s="0">
+      <c r="K5" t="s">
         <v>14</v>
       </c>
-      <c r="L5" t="s" s="0">
+      <c r="L5" t="s">
         <v>53</v>
       </c>
-      <c r="M5" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="AC5" t="s" s="0">
+      <c r="M5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC5" t="s">
         <v>57</v>
       </c>
-      <c r="AD5" t="s" s="0">
+      <c r="AD5" t="s">
         <v>61</v>
       </c>
-      <c r="AF5" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="AG5" t="s" s="0">
-        <v>84</v>
+      <c r="AF5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.35">
@@ -1042,13 +1005,13 @@
       <c r="C6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="0">
+      <c r="F6">
         <v>4567547656</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -1057,32 +1020,32 @@
       <c r="H6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I6" t="s" s="0">
+      <c r="I6" t="s">
         <v>10</v>
       </c>
-      <c r="J6" t="s" s="0">
+      <c r="J6" t="s">
         <v>11</v>
       </c>
-      <c r="K6" t="s" s="0">
+      <c r="K6" t="s">
         <v>14</v>
       </c>
-      <c r="L6" t="s" s="0">
+      <c r="L6" t="s">
         <v>54</v>
       </c>
-      <c r="M6" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="AC6" t="s" s="0">
+      <c r="M6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC6" t="s">
         <v>57</v>
       </c>
-      <c r="AD6" t="s" s="0">
+      <c r="AD6" t="s">
         <v>62</v>
       </c>
-      <c r="AF6" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="AG6" t="s" s="0">
-        <v>85</v>
+      <c r="AF6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.35">
@@ -1095,13 +1058,13 @@
       <c r="C7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="0">
+      <c r="F7">
         <v>7890870978</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -1110,32 +1073,32 @@
       <c r="H7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I7" t="s" s="0">
+      <c r="I7" t="s">
         <v>10</v>
       </c>
-      <c r="J7" t="s" s="0">
+      <c r="J7" t="s">
         <v>11</v>
       </c>
-      <c r="K7" t="s" s="0">
+      <c r="K7" t="s">
         <v>14</v>
       </c>
-      <c r="L7" t="s" s="0">
+      <c r="L7" t="s">
         <v>50</v>
       </c>
-      <c r="M7" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="AC7" t="s" s="0">
+      <c r="M7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC7" t="s">
         <v>57</v>
       </c>
-      <c r="AD7" t="s" s="0">
+      <c r="AD7" t="s">
         <v>58</v>
       </c>
-      <c r="AF7" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="AG7" t="s" s="0">
-        <v>86</v>
+      <c r="AF7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.35">
@@ -1148,13 +1111,13 @@
       <c r="C8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="0">
+      <c r="F8">
         <v>7890870979</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -1163,32 +1126,32 @@
       <c r="H8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I8" t="s" s="0">
+      <c r="I8" t="s">
         <v>10</v>
       </c>
-      <c r="J8" t="s" s="0">
+      <c r="J8" t="s">
         <v>11</v>
       </c>
-      <c r="K8" t="s" s="0">
+      <c r="K8" t="s">
         <v>14</v>
       </c>
-      <c r="L8" t="s" s="0">
+      <c r="L8" t="s">
         <v>51</v>
       </c>
-      <c r="M8" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="AC8" t="s" s="0">
+      <c r="M8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC8" t="s">
         <v>57</v>
       </c>
-      <c r="AD8" t="s" s="0">
+      <c r="AD8" t="s">
         <v>59</v>
       </c>
-      <c r="AF8" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="AG8" t="s" s="0">
-        <v>87</v>
+      <c r="AF8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.35">
@@ -1201,13 +1164,13 @@
       <c r="C9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="0">
+      <c r="F9">
         <v>7890870980</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -1216,32 +1179,32 @@
       <c r="H9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I9" t="s" s="0">
+      <c r="I9" t="s">
         <v>10</v>
       </c>
-      <c r="J9" t="s" s="0">
+      <c r="J9" t="s">
         <v>11</v>
       </c>
-      <c r="K9" t="s" s="0">
+      <c r="K9" t="s">
         <v>14</v>
       </c>
-      <c r="L9" t="s" s="0">
+      <c r="L9" t="s">
         <v>52</v>
       </c>
-      <c r="M9" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="AC9" t="s" s="0">
+      <c r="M9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC9" t="s">
         <v>57</v>
       </c>
-      <c r="AD9" t="s" s="0">
+      <c r="AD9" t="s">
         <v>60</v>
       </c>
-      <c r="AF9" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="AG9" t="s" s="0">
-        <v>88</v>
+      <c r="AF9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.35">
@@ -1254,14 +1217,14 @@
       <c r="C10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F10" t="s" s="0">
-        <v>89</v>
+      <c r="F10" t="s">
+        <v>77</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>12</v>
@@ -1269,32 +1232,32 @@
       <c r="H10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I10" t="s" s="0">
+      <c r="I10" t="s">
         <v>10</v>
       </c>
-      <c r="J10" t="s" s="0">
+      <c r="J10" t="s">
         <v>11</v>
       </c>
-      <c r="K10" t="s" s="0">
+      <c r="K10" t="s">
         <v>14</v>
       </c>
-      <c r="L10" t="s" s="0">
+      <c r="L10" t="s">
         <v>53</v>
       </c>
-      <c r="M10" t="s" s="0">
+      <c r="M10" t="s">
         <v>19</v>
       </c>
-      <c r="AC10" t="s" s="0">
+      <c r="AC10" t="s">
         <v>57</v>
       </c>
-      <c r="AD10" t="s" s="0">
+      <c r="AD10" t="s">
         <v>61</v>
       </c>
-      <c r="AF10" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="AG10" t="s" s="0">
-        <v>90</v>
+      <c r="AF10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/testData/WebForm/TC003_WF_RRUserN_NoCondition_Test.xlsx
+++ b/testData/WebForm/TC003_WF_RRUserN_NoCondition_Test.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="97">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -256,12 +256,67 @@
   </si>
   <si>
     <t>2024-06-29 11:37:37</t>
+  </si>
+  <si>
+    <t>9840028832</t>
+  </si>
+  <si>
+    <t>2024-07-04 12:33:24</t>
+  </si>
+  <si>
+    <t>9840028212</t>
+  </si>
+  <si>
+    <t>2024-07-04 12:34:07</t>
+  </si>
+  <si>
+    <t>9840009341</t>
+  </si>
+  <si>
+    <t>2024-07-04 12:34:48</t>
+  </si>
+  <si>
+    <t>9840047973</t>
+  </si>
+  <si>
+    <t>2024-07-04 12:35:28</t>
+  </si>
+  <si>
+    <t>9840082276</t>
+  </si>
+  <si>
+    <t>2024-07-04 12:36:09</t>
+  </si>
+  <si>
+    <t>9840095297</t>
+  </si>
+  <si>
+    <t>2024-07-04 12:36:48</t>
+  </si>
+  <si>
+    <t>9840039454</t>
+  </si>
+  <si>
+    <t>2024-07-04 12:37:31</t>
+  </si>
+  <si>
+    <t>9840005785</t>
+  </si>
+  <si>
+    <t>2024-07-04 12:38:11</t>
+  </si>
+  <si>
+    <t>9840051344</t>
+  </si>
+  <si>
+    <t>2024-07-04 12:38:51</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -601,137 +656,137 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.54296875" customWidth="1"/>
-    <col min="18" max="18" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.54296875" customWidth="1"/>
-    <col min="21" max="21" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.54296875" customWidth="1"/>
-    <col min="24" max="24" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.81640625" customWidth="1"/>
-    <col min="28" max="28" width="29.6328125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.26953125" customWidth="1"/>
-    <col min="32" max="32" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.36328125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="26.36328125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.54296875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="25.7265625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.08984375"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="10.54296875"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="17" max="17" customWidth="true" width="10.54296875"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="20" max="20" customWidth="true" width="10.54296875"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="23" max="23" customWidth="true" width="10.54296875"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="17.81640625"/>
+    <col min="27" max="27" customWidth="true" width="17.81640625"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="29.6328125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="15.90625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="14.26953125"/>
+    <col min="31" max="31" customWidth="true" width="14.26953125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="11.81640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" t="s" s="0">
         <v>22</v>
       </c>
     </row>
@@ -745,14 +800,14 @@
       <c r="C2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
-        <v>66</v>
+      <c r="F2" t="s" s="0">
+        <v>79</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -760,80 +815,80 @@
       <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Z2" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AA2" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AB2" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AC2" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AD2" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" s="0">
         <v>132</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AF2" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="AG2" t="s">
-        <v>67</v>
+      <c r="AG2" t="s" s="0">
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.35">
@@ -846,14 +901,14 @@
       <c r="C3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
-        <v>68</v>
+      <c r="F3" t="s" s="0">
+        <v>81</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
@@ -861,32 +916,32 @@
       <c r="H3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AC3" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AD3" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AF3" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="AG3" t="s">
-        <v>69</v>
+      <c r="AG3" t="s" s="0">
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.35">
@@ -899,14 +954,14 @@
       <c r="C4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
-        <v>70</v>
+      <c r="F4" t="s" s="0">
+        <v>83</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
@@ -914,32 +969,32 @@
       <c r="H4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AC4" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AD4" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AF4" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="AG4" t="s">
-        <v>71</v>
+      <c r="AG4" t="s" s="0">
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.35">
@@ -952,14 +1007,14 @@
       <c r="C5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F5">
-        <v>1243213423</v>
+      <c r="F5" t="s" s="0">
+        <v>85</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
@@ -967,32 +1022,32 @@
       <c r="H5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AC5" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AD5" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AF5" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="AG5" t="s">
-        <v>72</v>
+      <c r="AG5" t="s" s="0">
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.35">
@@ -1005,14 +1060,14 @@
       <c r="C6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F6">
-        <v>4567547656</v>
+      <c r="F6" t="s" s="0">
+        <v>87</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>12</v>
@@ -1020,32 +1075,32 @@
       <c r="H6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AC6" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AD6" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AF6" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="AG6" t="s">
-        <v>73</v>
+      <c r="AG6" t="s" s="0">
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.35">
@@ -1058,14 +1113,14 @@
       <c r="C7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F7">
-        <v>7890870978</v>
+      <c r="F7" t="s" s="0">
+        <v>89</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>12</v>
@@ -1073,32 +1128,32 @@
       <c r="H7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AC7" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AD7" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AF7" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="AG7" t="s">
-        <v>74</v>
+      <c r="AG7" t="s" s="0">
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.35">
@@ -1111,14 +1166,14 @@
       <c r="C8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F8">
-        <v>7890870979</v>
+      <c r="F8" t="s" s="0">
+        <v>91</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>12</v>
@@ -1126,32 +1181,32 @@
       <c r="H8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AC8" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AD8" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AF8" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="AG8" t="s">
-        <v>75</v>
+      <c r="AG8" t="s" s="0">
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.35">
@@ -1164,14 +1219,14 @@
       <c r="C9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F9">
-        <v>7890870980</v>
+      <c r="F9" t="s" s="0">
+        <v>93</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>12</v>
@@ -1179,32 +1234,32 @@
       <c r="H9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AC9" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AD9" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AF9" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="AG9" t="s">
-        <v>76</v>
+      <c r="AG9" t="s" s="0">
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.35">
@@ -1217,14 +1272,14 @@
       <c r="C10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F10" t="s">
-        <v>77</v>
+      <c r="F10" t="s" s="0">
+        <v>95</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>12</v>
@@ -1232,32 +1287,32 @@
       <c r="H10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AC10" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AD10" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AF10" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="AG10" t="s">
-        <v>78</v>
+      <c r="AG10" t="s" s="0">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/testData/WebForm/TC003_WF_RRUserN_NoCondition_Test.xlsx
+++ b/testData/WebForm/TC003_WF_RRUserN_NoCondition_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="115">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -310,6 +310,60 @@
   </si>
   <si>
     <t>2024-07-04 12:38:51</t>
+  </si>
+  <si>
+    <t>9840036791</t>
+  </si>
+  <si>
+    <t>2024-07-08 12:08:26</t>
+  </si>
+  <si>
+    <t>9840075710</t>
+  </si>
+  <si>
+    <t>2024-07-08 12:09:04</t>
+  </si>
+  <si>
+    <t>9840025112</t>
+  </si>
+  <si>
+    <t>2024-07-08 12:09:41</t>
+  </si>
+  <si>
+    <t>9840001599</t>
+  </si>
+  <si>
+    <t>2024-07-08 12:10:19</t>
+  </si>
+  <si>
+    <t>9840086746</t>
+  </si>
+  <si>
+    <t>2024-07-08 12:10:56</t>
+  </si>
+  <si>
+    <t>9840080143</t>
+  </si>
+  <si>
+    <t>2024-07-08 12:11:34</t>
+  </si>
+  <si>
+    <t>9840046791</t>
+  </si>
+  <si>
+    <t>2024-07-08 12:12:11</t>
+  </si>
+  <si>
+    <t>9840002817</t>
+  </si>
+  <si>
+    <t>2024-07-08 12:12:50</t>
+  </si>
+  <si>
+    <t>9840059895</t>
+  </si>
+  <si>
+    <t>2024-07-08 12:13:27</t>
   </si>
 </sst>
 </file>
@@ -807,7 +861,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -888,7 +942,7 @@
         <v>65</v>
       </c>
       <c r="AG2" t="s" s="0">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.35">
@@ -908,7 +962,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
@@ -941,7 +995,7 @@
         <v>65</v>
       </c>
       <c r="AG3" t="s" s="0">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.35">
@@ -961,7 +1015,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
@@ -994,7 +1048,7 @@
         <v>65</v>
       </c>
       <c r="AG4" t="s" s="0">
-        <v>84</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.35">
@@ -1014,7 +1068,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
@@ -1047,7 +1101,7 @@
         <v>65</v>
       </c>
       <c r="AG5" t="s" s="0">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.35">
@@ -1067,7 +1121,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>12</v>
@@ -1100,7 +1154,7 @@
         <v>65</v>
       </c>
       <c r="AG6" t="s" s="0">
-        <v>88</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.35">
@@ -1120,7 +1174,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>12</v>
@@ -1153,7 +1207,7 @@
         <v>65</v>
       </c>
       <c r="AG7" t="s" s="0">
-        <v>90</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.35">
@@ -1173,7 +1227,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>12</v>
@@ -1206,7 +1260,7 @@
         <v>65</v>
       </c>
       <c r="AG8" t="s" s="0">
-        <v>92</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.35">
@@ -1226,7 +1280,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>12</v>
@@ -1259,7 +1313,7 @@
         <v>65</v>
       </c>
       <c r="AG9" t="s" s="0">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.35">
@@ -1279,7 +1333,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>12</v>
@@ -1312,7 +1366,7 @@
         <v>65</v>
       </c>
       <c r="AG10" t="s" s="0">
-        <v>96</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/testData/WebForm/TC003_WF_RRUserN_NoCondition_Test.xlsx
+++ b/testData/WebForm/TC003_WF_RRUserN_NoCondition_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="133">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -364,6 +364,60 @@
   </si>
   <si>
     <t>2024-07-08 12:13:27</t>
+  </si>
+  <si>
+    <t>9840089355</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:15:57</t>
+  </si>
+  <si>
+    <t>9840022207</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:16:46</t>
+  </si>
+  <si>
+    <t>9840058847</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:17:34</t>
+  </si>
+  <si>
+    <t>9840018028</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:18:21</t>
+  </si>
+  <si>
+    <t>9840079423</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:19:09</t>
+  </si>
+  <si>
+    <t>9840055843</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:19:56</t>
+  </si>
+  <si>
+    <t>9840021040</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:20:53</t>
+  </si>
+  <si>
+    <t>9840029699</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:21:39</t>
+  </si>
+  <si>
+    <t>9840076580</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:22:27</t>
   </si>
 </sst>
 </file>
@@ -861,7 +915,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -942,7 +996,7 @@
         <v>65</v>
       </c>
       <c r="AG2" t="s" s="0">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.35">
@@ -962,7 +1016,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
@@ -995,7 +1049,7 @@
         <v>65</v>
       </c>
       <c r="AG3" t="s" s="0">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.35">
@@ -1015,7 +1069,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
@@ -1048,7 +1102,7 @@
         <v>65</v>
       </c>
       <c r="AG4" t="s" s="0">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.35">
@@ -1068,7 +1122,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
@@ -1101,7 +1155,7 @@
         <v>65</v>
       </c>
       <c r="AG5" t="s" s="0">
-        <v>104</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.35">
@@ -1121,7 +1175,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>12</v>
@@ -1154,7 +1208,7 @@
         <v>65</v>
       </c>
       <c r="AG6" t="s" s="0">
-        <v>106</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.35">
@@ -1174,7 +1228,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>12</v>
@@ -1207,7 +1261,7 @@
         <v>65</v>
       </c>
       <c r="AG7" t="s" s="0">
-        <v>108</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.35">
@@ -1227,7 +1281,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>12</v>
@@ -1260,7 +1314,7 @@
         <v>65</v>
       </c>
       <c r="AG8" t="s" s="0">
-        <v>110</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.35">
@@ -1280,7 +1334,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>12</v>
@@ -1313,7 +1367,7 @@
         <v>65</v>
       </c>
       <c r="AG9" t="s" s="0">
-        <v>112</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.35">
@@ -1333,7 +1387,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>12</v>
@@ -1366,7 +1420,7 @@
         <v>65</v>
       </c>
       <c r="AG10" t="s" s="0">
-        <v>114</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/testData/WebForm/TC003_WF_RRUserN_NoCondition_Test.xlsx
+++ b/testData/WebForm/TC003_WF_RRUserN_NoCondition_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="88">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -219,153 +219,6 @@
     <t>Done</t>
   </si>
   <si>
-    <t>9840016332</t>
-  </si>
-  <si>
-    <t>2024-06-29 11:34:49</t>
-  </si>
-  <si>
-    <t>9840026883</t>
-  </si>
-  <si>
-    <t>2024-06-29 11:35:32</t>
-  </si>
-  <si>
-    <t>9840082446</t>
-  </si>
-  <si>
-    <t>2024-06-29 11:36:14</t>
-  </si>
-  <si>
-    <t>2024-06-29 11:36:23</t>
-  </si>
-  <si>
-    <t>2024-06-29 11:36:31</t>
-  </si>
-  <si>
-    <t>2024-06-29 11:36:39</t>
-  </si>
-  <si>
-    <t>2024-06-29 11:36:47</t>
-  </si>
-  <si>
-    <t>2024-06-29 11:36:56</t>
-  </si>
-  <si>
-    <t>9840045895</t>
-  </si>
-  <si>
-    <t>2024-06-29 11:37:37</t>
-  </si>
-  <si>
-    <t>9840028832</t>
-  </si>
-  <si>
-    <t>2024-07-04 12:33:24</t>
-  </si>
-  <si>
-    <t>9840028212</t>
-  </si>
-  <si>
-    <t>2024-07-04 12:34:07</t>
-  </si>
-  <si>
-    <t>9840009341</t>
-  </si>
-  <si>
-    <t>2024-07-04 12:34:48</t>
-  </si>
-  <si>
-    <t>9840047973</t>
-  </si>
-  <si>
-    <t>2024-07-04 12:35:28</t>
-  </si>
-  <si>
-    <t>9840082276</t>
-  </si>
-  <si>
-    <t>2024-07-04 12:36:09</t>
-  </si>
-  <si>
-    <t>9840095297</t>
-  </si>
-  <si>
-    <t>2024-07-04 12:36:48</t>
-  </si>
-  <si>
-    <t>9840039454</t>
-  </si>
-  <si>
-    <t>2024-07-04 12:37:31</t>
-  </si>
-  <si>
-    <t>9840005785</t>
-  </si>
-  <si>
-    <t>2024-07-04 12:38:11</t>
-  </si>
-  <si>
-    <t>9840051344</t>
-  </si>
-  <si>
-    <t>2024-07-04 12:38:51</t>
-  </si>
-  <si>
-    <t>9840036791</t>
-  </si>
-  <si>
-    <t>2024-07-08 12:08:26</t>
-  </si>
-  <si>
-    <t>9840075710</t>
-  </si>
-  <si>
-    <t>2024-07-08 12:09:04</t>
-  </si>
-  <si>
-    <t>9840025112</t>
-  </si>
-  <si>
-    <t>2024-07-08 12:09:41</t>
-  </si>
-  <si>
-    <t>9840001599</t>
-  </si>
-  <si>
-    <t>2024-07-08 12:10:19</t>
-  </si>
-  <si>
-    <t>9840086746</t>
-  </si>
-  <si>
-    <t>2024-07-08 12:10:56</t>
-  </si>
-  <si>
-    <t>9840080143</t>
-  </si>
-  <si>
-    <t>2024-07-08 12:11:34</t>
-  </si>
-  <si>
-    <t>9840046791</t>
-  </si>
-  <si>
-    <t>2024-07-08 12:12:11</t>
-  </si>
-  <si>
-    <t>9840002817</t>
-  </si>
-  <si>
-    <t>2024-07-08 12:12:50</t>
-  </si>
-  <si>
-    <t>9840059895</t>
-  </si>
-  <si>
-    <t>2024-07-08 12:13:27</t>
-  </si>
-  <si>
     <t>9840089355</t>
   </si>
   <si>
@@ -418,6 +271,18 @@
   </si>
   <si>
     <t>2024-07-17 12:22:27</t>
+  </si>
+  <si>
+    <t>9840070679</t>
+  </si>
+  <si>
+    <t>2024-12-30 14:27:46</t>
+  </si>
+  <si>
+    <t>9840034323</t>
+  </si>
+  <si>
+    <t>2025-01-03 17:00:33</t>
   </si>
 </sst>
 </file>
@@ -758,46 +623,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="26.36328125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7265625"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="52.140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="26.42578125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="24.54296875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="25.7265625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.5703125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.42578125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="25.7109375"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.08984375"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="17" max="17" customWidth="true" width="10.54296875"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="20" max="20" customWidth="true" width="10.54296875"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="23" max="23" customWidth="true" width="10.54296875"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="17.81640625"/>
-    <col min="27" max="27" customWidth="true" width="17.81640625"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="29.6328125"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="15.90625"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="14.26953125"/>
-    <col min="31" max="31" customWidth="true" width="14.26953125"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.140625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="17" max="17" customWidth="true" width="10.5703125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="20" max="20" customWidth="true" width="10.5703125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="23" max="23" customWidth="true" width="10.5703125"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="17.85546875"/>
+    <col min="27" max="27" customWidth="true" width="17.85546875"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="29.5703125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="15.85546875"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="14.28515625"/>
+    <col min="31" max="31" customWidth="true" width="14.28515625"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="11.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
@@ -898,7 +763,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -915,7 +780,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -996,10 +861,10 @@
         <v>65</v>
       </c>
       <c r="AG2" t="s" s="0">
-        <v>116</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -1016,7 +881,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
@@ -1037,7 +902,7 @@
         <v>51</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="AC3" t="s" s="0">
         <v>57</v>
@@ -1049,10 +914,10 @@
         <v>65</v>
       </c>
       <c r="AG3" t="s" s="0">
-        <v>118</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -1069,7 +934,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
@@ -1090,7 +955,7 @@
         <v>52</v>
       </c>
       <c r="M4" t="s" s="0">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="AC4" t="s" s="0">
         <v>57</v>
@@ -1102,10 +967,10 @@
         <v>65</v>
       </c>
       <c r="AG4" t="s" s="0">
-        <v>120</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -1122,7 +987,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
@@ -1143,7 +1008,7 @@
         <v>53</v>
       </c>
       <c r="M5" t="s" s="0">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="AC5" t="s" s="0">
         <v>57</v>
@@ -1155,10 +1020,10 @@
         <v>65</v>
       </c>
       <c r="AG5" t="s" s="0">
-        <v>122</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -1175,7 +1040,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>12</v>
@@ -1196,7 +1061,7 @@
         <v>54</v>
       </c>
       <c r="M6" t="s" s="0">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="AC6" t="s" s="0">
         <v>57</v>
@@ -1208,10 +1073,10 @@
         <v>65</v>
       </c>
       <c r="AG6" t="s" s="0">
-        <v>124</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1228,7 +1093,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>12</v>
@@ -1249,7 +1114,7 @@
         <v>50</v>
       </c>
       <c r="M7" t="s" s="0">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="AC7" t="s" s="0">
         <v>57</v>
@@ -1261,10 +1126,10 @@
         <v>65</v>
       </c>
       <c r="AG7" t="s" s="0">
-        <v>126</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -1281,7 +1146,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>12</v>
@@ -1302,7 +1167,7 @@
         <v>51</v>
       </c>
       <c r="M8" t="s" s="0">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="AC8" t="s" s="0">
         <v>57</v>
@@ -1314,10 +1179,10 @@
         <v>65</v>
       </c>
       <c r="AG8" t="s" s="0">
-        <v>128</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1334,7 +1199,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>12</v>
@@ -1355,7 +1220,7 @@
         <v>52</v>
       </c>
       <c r="M9" t="s" s="0">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="AC9" t="s" s="0">
         <v>57</v>
@@ -1367,10 +1232,10 @@
         <v>65</v>
       </c>
       <c r="AG9" t="s" s="0">
-        <v>130</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1387,7 +1252,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>12</v>
@@ -1408,7 +1273,7 @@
         <v>53</v>
       </c>
       <c r="M10" t="s" s="0">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="AC10" t="s" s="0">
         <v>57</v>
@@ -1420,7 +1285,7 @@
         <v>65</v>
       </c>
       <c r="AG10" t="s" s="0">
-        <v>132</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
